--- a/xlsx/中國與聯合國關係_intext.xlsx
+++ b/xlsx/中國與聯合國關係_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2134">
   <si>
     <t>中國與聯合國關係</t>
   </si>
@@ -29,7 +29,7 @@
     <t>联合国</t>
   </si>
   <si>
-    <t>政策_政策_美國_中國與聯合國關係</t>
+    <t>体育运动_体育运动_南非_中國與聯合國關係</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E4%BC%9A%E5%91%98%E5%9B%BD%E5%88%97%E8%A1%A8</t>
@@ -3866,6 +3866,96 @@
     <t>特殊的國與國關係</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B8%8D%E4%B8%80%E6%B2%92%E6%9C%89</t>
+  </si>
+  <si>
+    <t>四不一沒有</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%80%E4%B8%AD%E6%9E%B6%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>大一中架構</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%85%B1%E8%AD%98</t>
+  </si>
+  <si>
+    <t>台灣共識</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>台灣民族主義</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E4%B8%BB%E9%AB%94%E6%80%A7</t>
+  </si>
+  <si>
+    <t>臺灣主體性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%9C%B0%E4%BD%8D%E6%9C%AA%E5%AE%9A%E8%AB%96</t>
+  </si>
+  <si>
+    <t>台灣地位未定論</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%8D%A8%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>台獨派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>台灣共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%8D%A8%E5%B7%A6%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>台獨左派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%8D%A8%E7%AB%8B%E9%81%8B%E5%8B%95%E7%9A%84%E6%96%B0%E4%B8%96%E4%BB%A3%E7%B6%B1%E9%A0%98</t>
+  </si>
+  <si>
+    <t>台灣獨立運動的新世代綱領</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E7%8D%A8</t>
+  </si>
+  <si>
+    <t>天然獨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%82%8A%E4%B8%80%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>一邊一國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E9%9A%8E%E6%AE%B5%E8%AB%96</t>
+  </si>
+  <si>
+    <t>四階段論</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E5%8F%B0</t>
+  </si>
+  <si>
+    <t>獨台</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%8D%A8</t>
+  </si>
+  <si>
+    <t>華獨</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%A8%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
@@ -3878,96 +3968,6 @@
     <t>中華民國是臺灣</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B8%8D%E4%B8%80%E6%B2%92%E6%9C%89</t>
-  </si>
-  <si>
-    <t>四不一沒有</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%80%E4%B8%AD%E6%9E%B6%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>大一中架構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%85%B1%E8%AD%98</t>
-  </si>
-  <si>
-    <t>台灣共識</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>台灣民族主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E4%B8%BB%E9%AB%94%E6%80%A7</t>
-  </si>
-  <si>
-    <t>臺灣主體性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%9C%B0%E4%BD%8D%E6%9C%AA%E5%AE%9A%E8%AB%96</t>
-  </si>
-  <si>
-    <t>台灣地位未定論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%8D%A8%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>台獨派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>台灣共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%8D%A8%E5%B7%A6%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>台獨左派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%8D%A8%E7%AB%8B%E9%81%8B%E5%8B%95%E7%9A%84%E6%96%B0%E4%B8%96%E4%BB%A3%E7%B6%B1%E9%A0%98</t>
-  </si>
-  <si>
-    <t>台灣獨立運動的新世代綱領</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E7%8D%A8</t>
-  </si>
-  <si>
-    <t>天然獨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%82%8A%E4%B8%80%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>一邊一國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E9%9A%8E%E6%AE%B5%E8%AB%96</t>
-  </si>
-  <si>
-    <t>四階段論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E5%8F%B0</t>
-  </si>
-  <si>
-    <t>獨台</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%8D%A8</t>
-  </si>
-  <si>
-    <t>華獨</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%EF%BC%88%E8%87%BA%E7%81%A3%EF%BC%89</t>
   </si>
   <si>
@@ -6110,6 +6110,12 @@
     <t>en-International Competition Network</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/Society_for_Risk_Analysis</t>
+  </si>
+  <si>
+    <t>en-Society for Risk Analysis</t>
+  </si>
+  <si>
     <t>https://en.wikipedia.org/wiki/International_Association_of_Insurance_Supervisors</t>
   </si>
   <si>
@@ -6254,6 +6260,18 @@
     <t>2018年臺中世界花卉博覽會</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/International_Society_for_Horticultural_Science</t>
+  </si>
+  <si>
+    <t>en-International Society for Horticultural Science</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Association_for_International_Broadcasting</t>
+  </si>
+  <si>
+    <t>en-Association for International Broadcasting</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%B7%A5%E4%B8%9A%E8%AE%BE%E8%AE%A1%E5%8D%8F%E4%BC%9A</t>
   </si>
   <si>
@@ -6272,6 +6290,78 @@
     <t>國際圍棋聯盟</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A7%91%E5%AD%B8%E7%90%86%E4%BA%8B%E6%9C%83</t>
+  </si>
+  <si>
+    <t>國際科學理事會</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9C%B0%E7%90%86%E8%81%AF%E5%90%88%E6%9C%83</t>
+  </si>
+  <si>
+    <t>國際地理聯合會</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A7%91%E5%AD%B8%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>國際科學奧林匹亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E6%95%B8%E5%AD%B8%E7%AB%B6%E8%B3%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>國際奧林匹克數學競賽列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%89%A9%E7%90%86%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B</t>
+  </si>
+  <si>
+    <t>國際物理奧林匹克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8C%96%E5%AD%B8%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E7%AB%B6%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>國際化學奧林匹克競賽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%88%9D%E4%B8%AD%E7%A7%91%E5%AD%B8%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B</t>
+  </si>
+  <si>
+    <t>國際初中科學奧林匹克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9C%B0%E7%90%83%E7%A7%91%E5%AD%B8%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>國際地球科學奧林匹亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9C%B0%E7%90%86%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>國際地理奧林匹亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%94%9F%E7%89%A9%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>國際生物奧林匹亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B3%87%E8%A8%8A%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>國際資訊奧林匹亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%8B%95%E7%89%A9%E5%9C%92%E6%9A%A8%E6%B0%B4%E6%97%8F%E9%A4%A8%E5%8D%94%E6%9C%83</t>
+  </si>
+  <si>
+    <t>世界動物園暨水族館協會</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A4%AA%E7%AB%A5%E8%BB%8D%E5%8D%80_(%E4%B8%96%E7%95%8C%E7%AB%A5%E8%BB%8D%E9%81%8B%E5%8B%95%E7%B5%84%E7%B9%94)</t>
   </si>
   <si>
@@ -6284,72 +6374,6 @@
     <t>世界女童軍總會會員列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A7%91%E5%AD%B8%E7%90%86%E4%BA%8B%E6%9C%83</t>
-  </si>
-  <si>
-    <t>國際科學理事會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9C%B0%E7%90%86%E8%81%AF%E5%90%88%E6%9C%83</t>
-  </si>
-  <si>
-    <t>國際地理聯合會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A7%91%E5%AD%B8%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>國際科學奧林匹亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E6%95%B8%E5%AD%B8%E7%AB%B6%E8%B3%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國際奧林匹克數學競賽列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%89%A9%E7%90%86%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B</t>
-  </si>
-  <si>
-    <t>國際物理奧林匹克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8C%96%E5%AD%B8%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E7%AB%B6%E8%B3%BD</t>
-  </si>
-  <si>
-    <t>國際化學奧林匹克競賽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%88%9D%E4%B8%AD%E7%A7%91%E5%AD%B8%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B</t>
-  </si>
-  <si>
-    <t>國際初中科學奧林匹克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9C%B0%E7%90%83%E7%A7%91%E5%AD%B8%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>國際地球科學奧林匹亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9C%B0%E7%90%86%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>國際地理奧林匹亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%94%9F%E7%89%A9%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>國際生物奧林匹亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B3%87%E8%A8%8A%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>國際資訊奧林匹亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%A4%A7%E5%AD%B8%E4%BA%9E%E9%9D%9E%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
@@ -6366,6 +6390,18 @@
   </si>
   <si>
     <t>世界動物衛生組織</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%86%AB%E5%AD%B8%E5%8D%94%E6%9C%83</t>
+  </si>
+  <si>
+    <t>世界醫學協會</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/International_Hospital_Federation</t>
+  </si>
+  <si>
+    <t>en-International Hospital Federation</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A4%AA%E7%89%99%E9%86%AB%E5%AD%B8%E7%94%9F%E8%81%AF%E5%90%88%E6%9C%83</t>
@@ -6729,7 +6765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1105"/>
+  <dimension ref="A1:I1111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6841,7 +6877,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -9596,7 +9632,7 @@
         <v>196</v>
       </c>
       <c r="G99" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -25836,7 +25872,7 @@
         <v>1284</v>
       </c>
       <c r="G659" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H659" t="s">
         <v>4</v>
@@ -25865,7 +25901,7 @@
         <v>1286</v>
       </c>
       <c r="G660" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H660" t="s">
         <v>4</v>
@@ -26004,10 +26040,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1295</v>
+        <v>233</v>
       </c>
       <c r="F665" t="s">
-        <v>1296</v>
+        <v>234</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -26033,10 +26069,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F666" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -26062,13 +26098,13 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>233</v>
+        <v>1297</v>
       </c>
       <c r="F667" t="s">
-        <v>234</v>
+        <v>1298</v>
       </c>
       <c r="G667" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H667" t="s">
         <v>4</v>
@@ -26126,7 +26162,7 @@
         <v>1302</v>
       </c>
       <c r="G669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H669" t="s">
         <v>4</v>
@@ -26184,7 +26220,7 @@
         <v>1306</v>
       </c>
       <c r="G671" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H671" t="s">
         <v>4</v>
@@ -26213,7 +26249,7 @@
         <v>1308</v>
       </c>
       <c r="G672" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H672" t="s">
         <v>4</v>
@@ -26242,7 +26278,7 @@
         <v>1310</v>
       </c>
       <c r="G673" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H673" t="s">
         <v>4</v>
@@ -26271,7 +26307,7 @@
         <v>1312</v>
       </c>
       <c r="G674" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H674" t="s">
         <v>4</v>
@@ -34211,10 +34247,10 @@
         <v>947</v>
       </c>
       <c r="E948" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="F948" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="G948" t="n">
         <v>1</v>
@@ -34240,10 +34276,10 @@
         <v>948</v>
       </c>
       <c r="E949" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="F949" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="G949" t="n">
         <v>2</v>
@@ -38590,10 +38626,10 @@
         <v>1098</v>
       </c>
       <c r="E1099" t="s">
-        <v>301</v>
+        <v>2113</v>
       </c>
       <c r="F1099" t="s">
-        <v>302</v>
+        <v>2114</v>
       </c>
       <c r="G1099" t="n">
         <v>1</v>
@@ -38619,10 +38655,10 @@
         <v>1099</v>
       </c>
       <c r="E1100" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="F1100" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="G1100" t="n">
         <v>1</v>
@@ -38648,10 +38684,10 @@
         <v>1100</v>
       </c>
       <c r="E1101" t="s">
-        <v>1459</v>
+        <v>2117</v>
       </c>
       <c r="F1101" t="s">
-        <v>1460</v>
+        <v>2118</v>
       </c>
       <c r="G1101" t="n">
         <v>1</v>
@@ -38677,10 +38713,10 @@
         <v>1101</v>
       </c>
       <c r="E1102" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="F1102" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G1102" t="n">
         <v>1</v>
@@ -38706,10 +38742,10 @@
         <v>1102</v>
       </c>
       <c r="E1103" t="s">
-        <v>2117</v>
+        <v>301</v>
       </c>
       <c r="F1103" t="s">
-        <v>2118</v>
+        <v>302</v>
       </c>
       <c r="G1103" t="n">
         <v>1</v>
@@ -38735,13 +38771,13 @@
         <v>1103</v>
       </c>
       <c r="E1104" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="F1104" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="G1104" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H1104" t="s">
         <v>4</v>
@@ -38764,10 +38800,10 @@
         <v>1104</v>
       </c>
       <c r="E1105" t="s">
-        <v>2119</v>
+        <v>1459</v>
       </c>
       <c r="F1105" t="s">
-        <v>2121</v>
+        <v>1460</v>
       </c>
       <c r="G1105" t="n">
         <v>1</v>
@@ -38776,6 +38812,180 @@
         <v>4</v>
       </c>
       <c r="I1105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:9">
+      <c r="A1106" s="1" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>1105</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>2124</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1106" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:9">
+      <c r="A1107" s="1" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>1106</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>2126</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1107" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:9">
+      <c r="A1108" s="1" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>1107</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>2127</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>2128</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1108" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:9">
+      <c r="A1109" s="1" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>1108</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>2129</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>2130</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1109" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:9">
+      <c r="A1110" s="1" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>1109</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>2132</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1110" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:9">
+      <c r="A1111" s="1" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>1110</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>2133</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1111" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1111" t="n">
         <v>3</v>
       </c>
     </row>
